--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C89C9-EC75-4A1E-94BC-C43652EDB807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E524FCD-C6FA-40D2-8147-DB52E26AE260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>TT</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Chi phí host tháng 10/2019</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 11/2019</t>
+  </si>
+  <si>
+    <t>Thuê luật sư</t>
+  </si>
+  <si>
+    <t>Chi phí làm nộp thuế tự động đăng ký với Sở KHĐT</t>
   </si>
 </sst>
 </file>
@@ -602,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,7 +651,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F3" s="5">
         <f>SUM(F5:F254)</f>
-        <v>13419000</v>
+        <v>14284000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -843,7 +852,9 @@
       <c r="F12" s="9">
         <v>2000000</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -1067,6 +1078,52 @@
       </c>
       <c r="G22" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <v>43477</v>
+      </c>
+      <c r="F23" s="9">
+        <v>365000</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8">
+        <v>43477</v>
+      </c>
+      <c r="F24" s="14">
+        <v>500000</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E524FCD-C6FA-40D2-8147-DB52E26AE260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BE50D-7110-43E4-95B0-F57EF01A9027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$H$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>TT</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Chi phí làm nộp thuế tự động đăng ký với Sở KHĐT</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Đã thanh toán cho Đoàn và Duy ngày 7/9/2019</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +277,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,50 +632,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
     <col min="3" max="3" width="15.90625" customWidth="1"/>
     <col min="4" max="4" width="11.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
     <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" customWidth="1"/>
+    <col min="8" max="8" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="11"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="15"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F3" s="5">
         <f>SUM(F5:F254)</f>
         <v>14284000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -674,10 +699,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -696,11 +724,14 @@
       <c r="F5" s="2">
         <v>1200000</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -719,9 +750,10 @@
       <c r="F6" s="2">
         <v>200000</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="18"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -739,11 +771,12 @@
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -762,11 +795,12 @@
       <c r="F8" s="9">
         <v>365000</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -785,11 +819,12 @@
       <c r="F9" s="9">
         <v>365000</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -808,9 +843,10 @@
       <c r="F10" s="9">
         <v>314000</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="19"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -829,11 +865,12 @@
       <c r="F11" s="9">
         <v>375000</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -852,11 +889,12 @@
       <c r="F12" s="9">
         <v>2000000</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -875,11 +913,12 @@
       <c r="F13" s="9">
         <v>200000</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -898,11 +937,12 @@
       <c r="F14" s="9">
         <v>1500000</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -921,11 +961,12 @@
       <c r="F15" s="9">
         <v>1000000</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -944,11 +985,12 @@
       <c r="F16" s="9">
         <v>365000</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -967,9 +1009,10 @@
       <c r="F17" s="14">
         <v>1500000</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="20"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -988,11 +1031,12 @@
       <c r="F18" s="9">
         <v>365000</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1011,11 +1055,12 @@
       <c r="F19" s="9">
         <v>365000</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1034,9 +1079,10 @@
       <c r="F20" s="14">
         <v>60000</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="20"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1055,9 +1101,10 @@
       <c r="F21" s="14">
         <v>1500000</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="20"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1076,11 +1123,12 @@
       <c r="F22" s="9">
         <v>365000</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1099,11 +1147,12 @@
       <c r="F23" s="9">
         <v>365000</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1122,14 +1171,15 @@
       <c r="F24" s="14">
         <v>500000</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
+  <autoFilter ref="A4:H17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BE50D-7110-43E4-95B0-F57EF01A9027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626999C9-F1BF-4E1E-A2E4-3191E67B5CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
+    <sheet name="ChiPhi_CoDinh" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChiPhi!$A$4:$I$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChiPhi_CoDinh!$A$6:$E$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>TT</t>
   </si>
@@ -107,9 +109,6 @@
 DoanLV4</t>
   </si>
   <si>
-    <t>Chi cục thuế kiểm tra</t>
-  </si>
-  <si>
     <t>Chi phí host tháng 7/2019</t>
   </si>
   <si>
@@ -171,15 +170,70 @@
   </si>
   <si>
     <t>Đã thanh toán cho Đoàn và Duy ngày 7/9/2019</t>
+  </si>
+  <si>
+    <t>Chi phí lương kế toán năm 2019</t>
+  </si>
+  <si>
+    <t>Thuê kế toán</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 12/2019</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Chưa thanh toán</t>
+  </si>
+  <si>
+    <t>Thuế môn bài năm 2020</t>
+  </si>
+  <si>
+    <t>Nộp điện tử qua tài khoản</t>
+  </si>
+  <si>
+    <t>Lương kế toán</t>
+  </si>
+  <si>
+    <t>Danh sách chi phí cố định hàng tháng của công ty</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Tin nhắn tài khoản</t>
+  </si>
+  <si>
+    <t>Thuế môn bài</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>Không phát sinh doanh thu thì 2tr/1 năm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tháng: </t>
+  </si>
+  <si>
+    <t>Năm:</t>
+  </si>
+  <si>
+    <t>Tổng chi 1 năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +261,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,7 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,9 +324,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -272,9 +334,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,14 +343,37 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,54 +714,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="28.36328125" customWidth="1"/>
-    <col min="8" max="8" width="41.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="41.54296875" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F3" s="5">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F3" s="27">
         <f>SUM(F5:F254)</f>
-        <v>14284000</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18649000</v>
+      </c>
+      <c r="G3" s="27">
+        <f>SUM(G5:G254)</f>
+        <v>1200000</v>
+      </c>
+      <c r="H3" s="27">
+        <f>SUM(H5:H254)</f>
+        <v>17449000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -687,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
@@ -699,13 +792,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -713,25 +812,32 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="21">
         <v>1200000</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="21">
+        <v>1200000</v>
+      </c>
+      <c r="H5" s="22">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -739,21 +845,28 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>43215</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="21">
         <v>200000</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" ref="H6:H27" si="0">F6-G6</f>
+        <v>200000</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -761,22 +874,29 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="2">
+      <c r="F7" s="21">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="0"/>
+        <v>1380000</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -784,23 +904,30 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>43501</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="21">
         <v>365000</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -808,23 +935,30 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>43502</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="21">
         <v>365000</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -832,21 +966,28 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>43502</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="21">
         <v>314000</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="0"/>
+        <v>314000</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -854,23 +995,30 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>43503</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="21">
         <v>375000</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="0"/>
+        <v>375000</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -878,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -886,15 +1034,22 @@
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="21">
         <v>2000000</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -902,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -910,15 +1065,20 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="21">
         <v>200000</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -926,7 +1086,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
@@ -934,23 +1094,30 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="21">
         <v>1500000</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -958,229 +1125,616 @@
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="21">
         <v>1000000</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>43473</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="21">
         <v>365000</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="F17" s="23">
         <v>1500000</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43474</v>
+      </c>
+      <c r="F18" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8">
-        <v>43474</v>
-      </c>
-      <c r="F18" s="9">
-        <v>365000</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>43475</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="21">
         <v>365000</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="F20" s="23">
         <v>60000</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="F21" s="23">
         <v>1500000</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>43476</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="21">
         <v>365000</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>43477</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="21">
         <v>365000</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>45</v>
+      <c r="B24" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>43477</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="23">
         <v>500000</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="17">
+        <v>43862</v>
+      </c>
+      <c r="F25" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7">
+        <v>43862</v>
+      </c>
+      <c r="F26" s="23">
+        <v>2000000</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="7">
+        <v>43862</v>
+      </c>
+      <c r="F27" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
+  <autoFilter ref="A4:I17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C942DB-F498-4AA5-9B64-40C6B39A5934}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
+    <col min="3" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="20">
+        <f>SUM(C7:C9)</f>
+        <v>1385000</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="20">
+        <f>SUM(C10:C11)</f>
+        <v>2200000</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="20">
+        <f>12*D3+D4</f>
+        <v>18820000</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="20">
+        <v>365000</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E6" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626999C9-F1BF-4E1E-A2E4-3191E67B5CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50179ACD-5F4B-438F-AAA9-852244555CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>TT</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Tổng chi 1 năm</t>
+  </si>
+  <si>
+    <t>Chữ ký số</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -343,9 +346,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -372,8 +372,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,25 +730,25 @@
     <col min="3" max="3" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="25" customWidth="1"/>
     <col min="9" max="9" width="41.54296875" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -759,15 +762,15 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <f>SUM(F5:F254)</f>
         <v>18649000</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <f>SUM(G5:G254)</f>
         <v>1200000</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <f>SUM(H5:H254)</f>
         <v>17449000</v>
       </c>
@@ -820,13 +823,13 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>1200000</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1200000</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f>F5-G5</f>
         <v>0</v>
       </c>
@@ -853,13 +856,13 @@
       <c r="E6" s="7">
         <v>43215</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>200000</v>
       </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
         <f t="shared" ref="H6:H27" si="0">F6-G6</f>
         <v>200000</v>
       </c>
@@ -880,14 +883,14 @@
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>1380000</v>
       </c>
@@ -912,13 +915,13 @@
       <c r="E8" s="7">
         <v>43501</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>365000</v>
       </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -943,13 +946,13 @@
       <c r="E9" s="7">
         <v>43502</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>365000</v>
       </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -974,13 +977,13 @@
       <c r="E10" s="7">
         <v>43502</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>314000</v>
       </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>314000</v>
       </c>
@@ -1003,13 +1006,13 @@
       <c r="E11" s="7">
         <v>43503</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>375000</v>
       </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
@@ -1034,13 +1037,13 @@
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>2000000</v>
       </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
@@ -1065,13 +1068,13 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>200000</v>
       </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
@@ -1094,13 +1097,13 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>1500000</v>
       </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
@@ -1125,13 +1128,13 @@
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>1000000</v>
       </c>
-      <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
@@ -1156,13 +1159,13 @@
       <c r="E16" s="7">
         <v>43473</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>365000</v>
       </c>
-      <c r="G16" s="21">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -1187,13 +1190,13 @@
       <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1500000</v>
       </c>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
@@ -1216,13 +1219,13 @@
       <c r="E18" s="7">
         <v>43474</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>365000</v>
       </c>
-      <c r="G18" s="21">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -1247,13 +1250,13 @@
       <c r="E19" s="7">
         <v>43475</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>365000</v>
       </c>
-      <c r="G19" s="21">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -1278,13 +1281,13 @@
       <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>60000</v>
       </c>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
@@ -1307,13 +1310,13 @@
       <c r="E21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1500000</v>
       </c>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
@@ -1336,13 +1339,13 @@
       <c r="E22" s="7">
         <v>43476</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>365000</v>
       </c>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -1367,13 +1370,13 @@
       <c r="E23" s="7">
         <v>43477</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>365000</v>
       </c>
-      <c r="G23" s="21">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -1398,13 +1401,13 @@
       <c r="E24" s="7">
         <v>43477</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>500000</v>
       </c>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
@@ -1414,32 +1417,32 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="16">
         <v>43862</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>2000000</v>
       </c>
-      <c r="G25" s="24">
-        <v>0</v>
-      </c>
-      <c r="H25" s="25">
+      <c r="G25" s="23">
+        <v>0</v>
+      </c>
+      <c r="H25" s="24">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="15" t="s">
         <v>48</v>
       </c>
       <c r="J25" s="1"/>
@@ -1460,13 +1463,13 @@
       <c r="E26" s="7">
         <v>43862</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>2000000</v>
       </c>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
@@ -1491,13 +1494,13 @@
       <c r="E27" s="7">
         <v>43862</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>365000</v>
       </c>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
@@ -1520,7 +1523,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1533,28 +1536,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f>SUM(C7:C9)</f>
         <v>1385000</v>
       </c>
@@ -1564,10 +1567,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f>SUM(C10:C11)</f>
         <v>2200000</v>
       </c>
@@ -1577,10 +1580,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f>12*D3+D4</f>
         <v>18820000</v>
       </c>
@@ -1612,10 +1615,10 @@
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>365000</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1630,10 +1633,10 @@
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>1000000</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1648,10 +1651,10 @@
       <c r="B9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>20000</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="1"/>
@@ -1664,10 +1667,10 @@
       <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>2000000</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="1"/>
@@ -1680,20 +1683,24 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>200000</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
@@ -1701,7 +1708,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
@@ -1709,7 +1716,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -1717,7 +1724,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
@@ -1725,7 +1732,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50179ACD-5F4B-438F-AAA9-852244555CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B53CA-57F4-4E10-9BD2-22C1BF8BBCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>TT</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Chữ ký số</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 01/2020</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -374,6 +377,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,17 +744,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -764,7 +770,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F254)</f>
-        <v>18649000</v>
+        <v>19014000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G254)</f>
@@ -772,7 +778,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H254)</f>
-        <v>17449000</v>
+        <v>17814000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1385,11 +1391,11 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1430,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="16">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="F25" s="23">
         <v>2000000</v>
@@ -1461,7 +1467,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="7">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="F26" s="22">
         <v>2000000</v>
@@ -1492,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="7">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="F27" s="20">
         <v>365000</v>
@@ -1508,6 +1514,37 @@
         <v>35</v>
       </c>
       <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7">
+        <v>43832</v>
+      </c>
+      <c r="F28" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" ref="H28" si="1">F28-G28</f>
+        <v>365000</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -1522,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C942DB-F498-4AA5-9B64-40C6B39A5934}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1536,13 +1573,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
@@ -1559,7 +1596,7 @@
       </c>
       <c r="D3" s="19">
         <f>SUM(C7:C9)</f>
-        <v>1385000</v>
+        <v>985000</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1585,7 +1622,7 @@
       </c>
       <c r="D5" s="19">
         <f>12*D3+D4</f>
-        <v>18820000</v>
+        <v>14020000</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1634,7 +1671,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="19">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>57</v>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B53CA-57F4-4E10-9BD2-22C1BF8BBCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD9D27-4DF4-4BE1-9FF2-9DAE3D1B48E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
   <si>
     <t>TT</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>Chi phí host tháng 01/2020</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 02/2020</t>
+  </si>
+  <si>
+    <t>Chi phí lương kế toán tháng 1/2020 trc khi cắt hợp đồng thuê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1500000/3 năm</t>
   </si>
 </sst>
 </file>
@@ -311,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -723,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,7 +783,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F254)</f>
-        <v>19014000</v>
+        <v>20379000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G254)</f>
@@ -778,7 +791,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H254)</f>
-        <v>17814000</v>
+        <v>19179000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1545,6 +1558,70 @@
         <v>35</v>
       </c>
       <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F29" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" ref="H29:H30" si="2">F29-G29</f>
+        <v>365000</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7">
+        <v>43832</v>
+      </c>
+      <c r="F30" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:I17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -1559,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C942DB-F498-4AA5-9B64-40C6B39A5934}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,8 +1685,8 @@
         <v>63</v>
       </c>
       <c r="D4" s="19">
-        <f>SUM(C10:C11)</f>
-        <v>2200000</v>
+        <f>SUM(C10:C12)</f>
+        <v>2700000</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1622,7 +1699,7 @@
       </c>
       <c r="D5" s="19">
         <f>12*D3+D4</f>
-        <v>14020000</v>
+        <v>14520000</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1736,9 +1813,15 @@
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="19">
+        <v>500000</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD9D27-4DF4-4BE1-9FF2-9DAE3D1B48E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C34D6E-AE9F-4076-98A5-02EC20920E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>TT</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>1500000/3 năm</t>
+  </si>
+  <si>
+    <t>Hóa đơn điện tử</t>
+  </si>
+  <si>
+    <t>3 trăm tờ</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -738,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,17 +763,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -1637,7 +1643,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1650,13 +1656,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
@@ -1819,17 +1825,25 @@
       <c r="D12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1500000</v>
+      </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C34D6E-AE9F-4076-98A5-02EC20920E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15FDA4-1D5E-4D6D-B688-0493D8AD0DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>TT</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>3 trăm tờ</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 03/2020</t>
+  </si>
+  <si>
+    <t>Nạp tiền vào tài khoản ngân hàng của công ty để duy trì</t>
   </si>
 </sst>
 </file>
@@ -742,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,16 +794,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
-        <f>SUM(F5:F254)</f>
-        <v>20379000</v>
+        <f>SUM(F5:F255)</f>
+        <v>21744000</v>
       </c>
       <c r="G3" s="26">
-        <f>SUM(G5:G254)</f>
+        <f>SUM(G5:G255)</f>
         <v>1200000</v>
       </c>
       <c r="H3" s="26">
-        <f>SUM(H5:H254)</f>
-        <v>19179000</v>
+        <f>SUM(H5:H255)</f>
+        <v>20544000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" ref="H6:H27" si="0">F6-G6</f>
+        <f t="shared" ref="H6:H28" si="0">F6-G6</f>
         <v>200000</v>
       </c>
       <c r="I6" s="1"/>
@@ -1259,64 +1265,64 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
+      <c r="B19" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="7">
-        <v>43475</v>
+        <v>43474</v>
       </c>
       <c r="F19" s="20">
-        <v>365000</v>
+        <v>1000000</v>
       </c>
       <c r="G19" s="20">
         <v>0</v>
       </c>
       <c r="H19" s="21">
-        <f t="shared" si="0"/>
-        <v>365000</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>35</v>
-      </c>
+        <f t="shared" ref="H19" si="1">F19-G19</f>
+        <v>1000000</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>38</v>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="22">
-        <v>60000</v>
+      <c r="E20" s="7">
+        <v>43475</v>
+      </c>
+      <c r="F20" s="20">
+        <v>365000</v>
       </c>
       <c r="G20" s="20">
         <v>0</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>365000</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1324,7 +1330,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>38</v>
@@ -1336,14 +1342,14 @@
         <v>39</v>
       </c>
       <c r="F21" s="22">
-        <v>1500000</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="20">
         <v>0</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>60000</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1352,31 +1358,29 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
+      <c r="B22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="7">
-        <v>43476</v>
-      </c>
-      <c r="F22" s="20">
-        <v>365000</v>
+      <c r="E22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1500000</v>
       </c>
       <c r="G22" s="20">
         <v>0</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
-        <v>365000</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>1500000</v>
+      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1384,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1393,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="7">
-        <v>43477</v>
+        <v>43476</v>
       </c>
       <c r="F23" s="20">
         <v>365000</v>
@@ -1410,15 +1414,15 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>44</v>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
@@ -1426,49 +1430,49 @@
       <c r="E24" s="7">
         <v>43477</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7">
+        <v>43477</v>
+      </c>
+      <c r="F25" s="22">
         <v>500000</v>
       </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
-        <v>21</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="16">
-        <v>43831</v>
-      </c>
-      <c r="F25" s="23">
-        <v>2000000</v>
-      </c>
-      <c r="G25" s="23">
-        <v>0</v>
-      </c>
-      <c r="H25" s="24">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -1476,30 +1480,30 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="16">
         <v>43831</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="23">
         <v>2000000</v>
       </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
+      <c r="G26" s="23">
+        <v>0</v>
+      </c>
+      <c r="H26" s="24">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>53</v>
+      <c r="I26" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1507,11 +1511,11 @@
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
+      <c r="B27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
@@ -1519,18 +1523,18 @@
       <c r="E27" s="7">
         <v>43831</v>
       </c>
-      <c r="F27" s="20">
-        <v>365000</v>
+      <c r="F27" s="22">
+        <v>2000000</v>
       </c>
       <c r="G27" s="20">
         <v>0</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
-        <v>365000</v>
+        <v>2000000</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -1539,7 +1543,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>30</v>
@@ -1548,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="7">
-        <v>43832</v>
+        <v>43831</v>
       </c>
       <c r="F28" s="20">
         <v>365000</v>
@@ -1557,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="21">
-        <f t="shared" ref="H28" si="1">F28-G28</f>
+        <f t="shared" si="0"/>
         <v>365000</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1570,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>30</v>
@@ -1579,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="7">
-        <v>43833</v>
+        <v>43832</v>
       </c>
       <c r="F29" s="20">
         <v>365000</v>
@@ -1588,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" ref="H29:H30" si="2">F29-G29</f>
+        <f t="shared" ref="H29" si="2">F29-G29</f>
         <v>365000</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -1596,36 +1600,98 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7">
+        <v>43833</v>
+      </c>
+      <c r="F30" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <f t="shared" ref="H30:H32" si="3">F30-G30</f>
+        <v>365000</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
         <v>43832</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F31" s="21">
         <v>1000000</v>
       </c>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21">
-        <f t="shared" si="2"/>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7">
+        <v>43834</v>
+      </c>
+      <c r="F32" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21">
+        <f t="shared" si="3"/>
+        <v>365000</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1642,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C942DB-F498-4AA5-9B64-40C6B39A5934}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15FDA4-1D5E-4D6D-B688-0493D8AD0DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC98FFC-AADE-4979-A7C6-BE233CEA0423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>TT</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Chi phí lương kế toán tháng 1/2020 trc khi cắt hợp đồng thuê</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>1500000/3 năm</t>
   </si>
   <si>
@@ -254,6 +251,12 @@
   </si>
   <si>
     <t>Nạp tiền vào tài khoản ngân hàng của công ty để duy trì</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 04/2020</t>
+  </si>
+  <si>
+    <t>Chi phí lương kế toán 03 tháng 2-3-4/2020</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,12 +333,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -748,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,7 +810,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F255)</f>
-        <v>21744000</v>
+        <v>23909000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
@@ -803,7 +818,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>20544000</v>
+        <v>22709000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1270,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1664,7 +1679,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>30</v>
@@ -1690,10 +1705,64 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7">
+        <v>43835</v>
+      </c>
+      <c r="F33" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
+        <f t="shared" ref="H33" si="4">F33-G33</f>
+        <v>365000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="31">
+        <v>29</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7">
+        <v>43835</v>
+      </c>
+      <c r="F34" s="20">
+        <v>1800000</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" ref="H34" si="5">F34-G34</f>
+        <v>1800000</v>
+      </c>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -1892,7 +1961,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1901,14 +1970,14 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2">
         <v>1500000</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1"/>
     </row>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC98FFC-AADE-4979-A7C6-BE233CEA0423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC9426B-C3B9-49E8-BDE5-30F6DEC8EC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
-    <sheet name="ChiPhi_CoDinh" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="ChiPhi_CoDinh" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChiPhi!$A$4:$I$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChiPhi_CoDinh!$A$6:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ChiPhi_CoDinh!$A$6:$E$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>TT</t>
   </si>
@@ -257,6 +258,57 @@
   </si>
   <si>
     <t>Chi phí lương kế toán 03 tháng 2-3-4/2020</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Chi phí thuê host 2018</t>
+  </si>
+  <si>
+    <t>Người nhận</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>Tiền nhận đợt này</t>
+  </si>
+  <si>
+    <t>Trường</t>
+  </si>
+  <si>
+    <t>Đoàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh toán các chi phí từ dòng 4-&gt; 9 </t>
+  </si>
+  <si>
+    <t>Dòng 4-&gt;9 trong file chiphi.xlsx</t>
+  </si>
+  <si>
+    <t>Dòng số 3 trong file chiphi.xlsx</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Mua quà 2 áo sơ mi Owen biếu anh Thiện</t>
+  </si>
+  <si>
+    <t>Sẽ không ghi vào file chiphi.xlsx</t>
+  </si>
+  <si>
+    <t>Còn trong tài khoản</t>
+  </si>
+  <si>
+    <t>a Thiện</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 05/2020</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 27/5/2020</t>
   </si>
 </sst>
 </file>
@@ -284,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +361,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -344,12 +402,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,10 +491,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -763,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,22 +857,22 @@
     <col min="6" max="6" width="14.54296875" style="25" customWidth="1"/>
     <col min="7" max="7" width="13.90625" style="25" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="41.54296875" customWidth="1"/>
+    <col min="9" max="9" width="38.54296875" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -810,15 +888,15 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F255)</f>
-        <v>23909000</v>
+        <v>24274000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
-        <v>1200000</v>
+        <v>6399000</v>
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>22709000</v>
+        <v>17875000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -879,7 +957,7 @@
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -906,14 +984,16 @@
         <v>200000</v>
       </c>
       <c r="G6" s="20">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" ref="H6:H28" si="0">F6-G6</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -934,16 +1014,19 @@
         <v>1380000</v>
       </c>
       <c r="G7" s="20">
-        <v>0</v>
+        <f>5*12*23000</f>
+        <v>1380000</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
-        <v>1380000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -965,16 +1048,18 @@
         <v>365000</v>
       </c>
       <c r="G8" s="20">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>365000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -996,16 +1081,18 @@
         <v>365000</v>
       </c>
       <c r="G9" s="20">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
-        <v>365000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -1027,14 +1114,16 @@
         <v>314000</v>
       </c>
       <c r="G10" s="20">
-        <v>0</v>
+        <v>314000</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
-        <v>314000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -1056,16 +1145,18 @@
         <v>375000</v>
       </c>
       <c r="G11" s="20">
-        <v>0</v>
+        <v>375000</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
-        <v>375000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1087,16 +1178,18 @@
         <v>2000000</v>
       </c>
       <c r="G12" s="20">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -1118,14 +1211,16 @@
         <v>200000</v>
       </c>
       <c r="G13" s="20">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1737,7 +1832,7 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="31">
+      <c r="A34" s="11">
         <v>29</v>
       </c>
       <c r="B34" s="28" t="s">
@@ -1759,10 +1854,40 @@
         <v>0</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" ref="H34" si="5">F34-G34</f>
+        <f t="shared" ref="H34:H35" si="5">F34-G34</f>
         <v>1800000</v>
       </c>
       <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7">
+        <v>43836</v>
+      </c>
+      <c r="F35" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="5"/>
+        <v>365000</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:I17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -1774,11 +1899,189 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA9C0A-5A0B-4998-8B04-50875DE1B630}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1380000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="29">
+        <v>5000000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="29">
+        <v>5000000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="29">
+        <v>5000000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3619000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="32">
+        <f>SUM(C2:C7)</f>
+        <v>20999000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="33">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="32">
+        <f>SUM(C2:C3)</f>
+        <v>6380000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="33">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="32">
+        <f>SUM(C5:C6)</f>
+        <v>8619000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C942DB-F498-4AA5-9B64-40C6B39A5934}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1791,13 +2094,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC9426B-C3B9-49E8-BDE5-30F6DEC8EC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23B356-9629-4725-9EEF-056623DCF443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
   <si>
     <t>TT</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Đã thanh toán 27/5/2020</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 06/2020</t>
   </si>
 </sst>
 </file>
@@ -841,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,7 +891,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F255)</f>
-        <v>24274000</v>
+        <v>24639000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
@@ -896,7 +899,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>17875000</v>
+        <v>18240000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1886,6 +1889,36 @@
         <v>365000</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="7">
+        <v>43837</v>
+      </c>
+      <c r="F36" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" ref="H36" si="6">F36-G36</f>
+        <v>365000</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23B356-9629-4725-9EEF-056623DCF443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465124B-B9CA-472F-BC28-361B4D4393AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>TT</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Chi phí host tháng 06/2020</t>
+  </si>
+  <si>
+    <t>Chi phí lương kế toán 02 tháng 5-6/2020</t>
   </si>
 </sst>
 </file>
@@ -844,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,7 +894,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F255)</f>
-        <v>24639000</v>
+        <v>25839000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
@@ -899,7 +902,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>18240000</v>
+        <v>19440000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1893,8 +1896,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>30</v>
+      <c r="A36" s="11">
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>93</v>
@@ -1915,12 +1918,40 @@
         <v>0</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" ref="H36" si="6">F36-G36</f>
+        <f t="shared" ref="H36:H37" si="6">F36-G36</f>
         <v>365000</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="7">
+        <v>44050</v>
+      </c>
+      <c r="F37" s="20">
+        <v>1200000</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
+        <f t="shared" si="6"/>
+        <v>1200000</v>
+      </c>
+      <c r="I37" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465124B-B9CA-472F-BC28-361B4D4393AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93D641-4EDD-47CF-A3F0-23A74BEC5DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="ChiPhi_CoDinh" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChiPhi!$A$4:$I$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChiPhi!$A$4:$I$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ChiPhi_CoDinh!$A$6:$E$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
   <si>
     <t>TT</t>
   </si>
@@ -342,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,6 +513,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -847,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +911,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F255)</f>
-        <v>25839000</v>
+        <v>26204000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
@@ -902,7 +919,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>19440000</v>
+        <v>19805000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1232,29 +1249,29 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="37">
         <v>1500000</v>
       </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="1"/>
@@ -1263,29 +1280,29 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="37">
         <v>1000000</v>
       </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="35" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="1"/>
@@ -1325,29 +1342,29 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="37">
         <v>1500000</v>
       </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="G17" s="37">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1953,8 +1970,38 @@
       </c>
       <c r="I37" s="1"/>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7">
+        <v>43838</v>
+      </c>
+      <c r="F38" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <f t="shared" ref="H38" si="7">F38-G38</f>
+        <v>365000</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:I17" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
+  <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93D641-4EDD-47CF-A3F0-23A74BEC5DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E652E-2FAC-4013-B612-9FB132803537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="ChiPhi_CoDinh" sheetId="2" r:id="rId3"/>
+    <sheet name="ChiPhi_CoDinh" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ChiPhi!$A$4:$I$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ChiPhi_CoDinh!$A$6:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChiPhi_CoDinh!$A$6:$E$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
   <si>
     <t>TT</t>
   </si>
@@ -260,51 +251,6 @@
     <t>Chi phí lương kế toán 03 tháng 2-3-4/2020</t>
   </si>
   <si>
-    <t>Số tiền</t>
-  </si>
-  <si>
-    <t>Chi phí thuê host 2018</t>
-  </si>
-  <si>
-    <t>Người nhận</t>
-  </si>
-  <si>
-    <t>Duy</t>
-  </si>
-  <si>
-    <t>Tiền nhận đợt này</t>
-  </si>
-  <si>
-    <t>Trường</t>
-  </si>
-  <si>
-    <t>Đoàn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanh toán các chi phí từ dòng 4-&gt; 9 </t>
-  </si>
-  <si>
-    <t>Dòng 4-&gt;9 trong file chiphi.xlsx</t>
-  </si>
-  <si>
-    <t>Dòng số 3 trong file chiphi.xlsx</t>
-  </si>
-  <si>
-    <t>Tổng</t>
-  </si>
-  <si>
-    <t>Mua quà 2 áo sơ mi Owen biếu anh Thiện</t>
-  </si>
-  <si>
-    <t>Sẽ không ghi vào file chiphi.xlsx</t>
-  </si>
-  <si>
-    <t>Còn trong tài khoản</t>
-  </si>
-  <si>
-    <t>a Thiện</t>
-  </si>
-  <si>
     <t>Chi phí host tháng 05/2020</t>
   </si>
   <si>
@@ -315,6 +261,9 @@
   </si>
   <si>
     <t>Chi phí lương kế toán 02 tháng 5-6/2020</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 25/8/2020</t>
   </si>
 </sst>
 </file>
@@ -342,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,18 +318,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -403,36 +346,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,27 +422,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,7 +781,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,17 +799,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -915,11 +829,11 @@
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
-        <v>6399000</v>
+        <v>8899000</v>
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>19805000</v>
+        <v>17305000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1015,7 +929,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1048,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1081,7 +995,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1114,7 +1028,7 @@
         <v>35</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1145,7 +1059,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1178,7 +1092,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1211,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1242,130 +1156,134 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34">
         <v>10</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="D14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>1500000</v>
       </c>
-      <c r="G14" s="37">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
+      <c r="G14" s="36">
+        <v>1500000</v>
+      </c>
+      <c r="H14" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34">
+        <v>11</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="H15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="32">
+        <v>43473</v>
+      </c>
+      <c r="F16" s="22">
+        <v>365000</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" si="0"/>
+        <v>365000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1500000</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="37">
-        <v>1000000</v>
-      </c>
-      <c r="G15" s="37">
-        <v>0</v>
-      </c>
-      <c r="H15" s="38">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
-        <v>43473</v>
-      </c>
-      <c r="F16" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
-        <f t="shared" si="0"/>
-        <v>365000</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="37">
-        <v>1500000</v>
-      </c>
-      <c r="G17" s="37">
-        <v>0</v>
-      </c>
-      <c r="H17" s="38">
-        <f t="shared" si="0"/>
-        <v>1500000</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -1887,7 +1805,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>30</v>
@@ -1917,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>30</v>
@@ -1947,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>38</v>
@@ -1975,7 +1893,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>30</v>
@@ -2010,184 +1928,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA9C0A-5A0B-4998-8B04-50875DE1B630}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1380000</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="29">
-        <v>5000000</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="29">
-        <v>5000000</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="29">
-        <v>5000000</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3619000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="32">
-        <f>SUM(C2:C7)</f>
-        <v>20999000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="33">
-        <v>590000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="32">
-        <f>SUM(C2:C3)</f>
-        <v>6380000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="33">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="32">
-        <f>SUM(C5:C6)</f>
-        <v>8619000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C942DB-F498-4AA5-9B64-40C6B39A5934}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -2205,13 +1945,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E652E-2FAC-4013-B612-9FB132803537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591F9F15-E7D5-47DC-A853-83A7EC07572C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
   <si>
     <t>TT</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>Đã thanh toán 25/8/2020</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 07/2020</t>
+  </si>
+  <si>
+    <t>Chi phí lương kế toán 03 tháng 7-8-9/2020</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 08/2020</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 09/2020</t>
   </si>
 </sst>
 </file>
@@ -778,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +837,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F255)</f>
-        <v>26204000</v>
+        <v>28734000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
@@ -833,7 +845,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>17305000</v>
+        <v>19835000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1893,7 +1905,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>30</v>
@@ -1917,6 +1929,94 @@
       <c r="I38" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7">
+        <v>43839</v>
+      </c>
+      <c r="F39" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21">
+        <f t="shared" ref="H39:H41" si="8">F39-G39</f>
+        <v>365000</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="7">
+        <v>43840</v>
+      </c>
+      <c r="F40" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21">
+        <f t="shared" si="8"/>
+        <v>365000</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7">
+        <v>43840</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1800000</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21">
+        <f t="shared" si="8"/>
+        <v>1800000</v>
+      </c>
+      <c r="I41" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591F9F15-E7D5-47DC-A853-83A7EC07572C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13829E4-E1D9-4717-AAC2-19BFDCD7C9CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>TT</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Chi phí host tháng 09/2020</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 10/2020</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,22 +437,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,17 +813,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -837,7 +839,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
         <f>SUM(F5:F255)</f>
-        <v>28734000</v>
+        <v>29099000</v>
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
@@ -845,7 +847,7 @@
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>19835000</v>
+        <v>20200000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1171,314 +1173,314 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34">
+    <row r="14" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="35" t="s">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="20">
         <v>1500000</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="20">
         <v>1500000</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34">
+    <row r="15" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="35" t="s">
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="20">
         <v>1000000</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="20">
         <v>1000000</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+    <row r="16" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="35">
         <v>43473</v>
       </c>
-      <c r="F16" s="22">
-        <v>365000</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
+      <c r="F16" s="32">
+        <v>365000</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="33">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="D17" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="32">
         <v>1500000</v>
       </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="33">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="35">
         <v>43474</v>
       </c>
-      <c r="F18" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="F18" s="32">
+        <v>365000</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="33">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="35">
         <v>43474</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="32">
         <v>1000000</v>
       </c>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="33">
         <f t="shared" ref="H19" si="1">F19-G19</f>
         <v>1000000</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="31">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="35">
         <v>43475</v>
       </c>
-      <c r="F20" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="F20" s="32">
+        <v>365000</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="33">
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21" s="31">
         <v>17</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="32">
         <v>60000</v>
       </c>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
+      <c r="H21" s="33">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22" s="31">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="22">
-        <v>1500000</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
-        <f t="shared" si="0"/>
-        <v>1500000</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="B22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="35">
+        <v>43476</v>
+      </c>
+      <c r="F22" s="32">
+        <v>365000</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="33">
+        <f>F22-G22</f>
+        <v>365000</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
+      <c r="B23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="7">
-        <v>43476</v>
-      </c>
-      <c r="F23" s="20">
-        <v>365000</v>
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1500000</v>
       </c>
       <c r="G23" s="20">
         <v>0</v>
       </c>
       <c r="H23" s="21">
-        <f t="shared" si="0"/>
-        <v>365000</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>35</v>
-      </c>
+        <f>F23-G23</f>
+        <v>1500000</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1540,7 +1542,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -1602,7 +1604,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28" s="11">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1664,7 +1666,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30" s="11">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1723,7 +1725,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32" s="11">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1755,7 +1757,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>74</v>
@@ -1786,7 +1788,7 @@
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>75</v>
@@ -1814,7 +1816,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>76</v>
@@ -1844,7 +1846,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>78</v>
@@ -1874,7 +1876,7 @@
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>79</v>
@@ -1902,7 +1904,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>81</v>
@@ -1931,8 +1933,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11">
-        <v>33</v>
+      <c r="A39" s="1">
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>83</v>
@@ -1962,7 +1964,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>84</v>
@@ -1992,7 +1994,7 @@
     </row>
     <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>82</v>
@@ -2017,6 +2019,36 @@
         <v>1800000</v>
       </c>
       <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="7">
+        <v>43841</v>
+      </c>
+      <c r="F42" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0</v>
+      </c>
+      <c r="H42" s="21">
+        <f t="shared" ref="H42" si="9">F42-G42</f>
+        <v>365000</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -2024,6 +2056,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2045,13 +2078,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13829E4-E1D9-4717-AAC2-19BFDCD7C9CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E189B-1DAD-4242-8D78-06429EFE6642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="87">
   <si>
     <t>TT</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Chi phí host tháng 10/2020</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 15/11/2020</t>
   </si>
 </sst>
 </file>
@@ -443,15 +446,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,17 +816,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -843,11 +846,11 @@
       </c>
       <c r="G3" s="26">
         <f>SUM(G5:G255)</f>
-        <v>8899000</v>
+        <v>12919000</v>
       </c>
       <c r="H3" s="26">
         <f>SUM(H5:H255)</f>
-        <v>20200000</v>
+        <v>16180000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -938,7 +941,7 @@
         <v>200000</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" ref="H6:H28" si="0">F6-G6</f>
+        <f t="shared" ref="G6:H28" si="0">F6-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
@@ -1252,23 +1255,25 @@
       <c r="D16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>43473</v>
       </c>
       <c r="F16" s="32">
         <v>365000</v>
       </c>
       <c r="G16" s="32">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="H16" s="33">
         <f t="shared" si="0"/>
-        <v>365000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
@@ -1283,21 +1288,23 @@
       <c r="D17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="32">
         <v>1500000</v>
       </c>
       <c r="G17" s="32">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="33">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="J17" s="31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
@@ -1312,29 +1319,31 @@
       <c r="D18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>43474</v>
       </c>
       <c r="F18" s="32">
         <v>365000</v>
       </c>
       <c r="G18" s="32">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="0"/>
-        <v>365000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -1343,21 +1352,23 @@
       <c r="D19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="34">
         <v>43474</v>
       </c>
       <c r="F19" s="32">
         <v>1000000</v>
       </c>
       <c r="G19" s="32">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="33">
-        <f t="shared" ref="H19" si="1">F19-G19</f>
-        <v>1000000</v>
+        <f t="shared" ref="G19:H19" si="1">F19-G19</f>
+        <v>0</v>
       </c>
       <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="J19" s="31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
@@ -1372,23 +1383,25 @@
       <c r="D20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="34">
         <v>43475</v>
       </c>
       <c r="F20" s="32">
         <v>365000</v>
       </c>
       <c r="G20" s="32">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>365000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
@@ -1403,21 +1416,23 @@
       <c r="D21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="32">
         <v>60000</v>
       </c>
       <c r="G21" s="32">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="H21" s="33">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
@@ -1432,23 +1447,25 @@
       <c r="D22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <v>43476</v>
       </c>
       <c r="F22" s="32">
         <v>365000</v>
       </c>
       <c r="G22" s="32">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="H22" s="33">
         <f>F22-G22</f>
-        <v>365000</v>
+        <v>0</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="31"/>
+      <c r="J22" s="31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -2078,13 +2095,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E189B-1DAD-4242-8D78-06429EFE6642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F33B1C-F8FA-4477-A952-980AB0301B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
   <si>
     <t>TT</t>
   </si>
@@ -282,6 +282,27 @@
   </si>
   <si>
     <t>Đã thanh toán 15/11/2020</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 11/2020</t>
+  </si>
+  <si>
+    <t>Chi phí lương kế toán 03 tháng 10-11-12/2020</t>
+  </si>
+  <si>
+    <t>31/12/2020</t>
+  </si>
+  <si>
+    <t>Thuế môn bài năm 2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 12/2020</t>
+  </si>
+  <si>
+    <t>21/1/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 1/2021</t>
   </si>
 </sst>
 </file>
@@ -795,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,16 +862,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="26">
-        <f>SUM(F5:F255)</f>
-        <v>29099000</v>
+        <f>SUM(F5:F256)</f>
+        <v>33994000</v>
       </c>
       <c r="G3" s="26">
-        <f>SUM(G5:G255)</f>
+        <f>SUM(G5:G256)</f>
         <v>12919000</v>
       </c>
       <c r="H3" s="26">
-        <f>SUM(H5:H255)</f>
-        <v>16180000</v>
+        <f>SUM(H5:H256)</f>
+        <v>21075000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -941,7 +962,7 @@
         <v>200000</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" ref="G6:H28" si="0">F6-G6</f>
+        <f t="shared" ref="H6:H28" si="0">F6-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
@@ -1362,7 +1383,7 @@
         <v>1000000</v>
       </c>
       <c r="H19" s="33">
-        <f t="shared" ref="G19:H19" si="1">F19-G19</f>
+        <f t="shared" ref="H19" si="1">F19-G19</f>
         <v>0</v>
       </c>
       <c r="I19" s="31"/>
@@ -2064,6 +2085,155 @@
         <v>365000</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>43842</v>
+      </c>
+      <c r="F43" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21">
+        <f t="shared" ref="H43:H47" si="10">F43-G43</f>
+        <v>365000</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>39</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="20">
+        <v>1800000</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" si="10"/>
+        <v>1800000</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="7">
+        <v>44197</v>
+      </c>
+      <c r="F45" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0</v>
+      </c>
+      <c r="H45" s="21">
+        <f t="shared" ref="H45" si="11">F45-G45</f>
+        <v>365000</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>40</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="22">
+        <v>2000000</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
+      <c r="H46" s="21">
+        <f t="shared" si="10"/>
+        <v>2000000</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="7">
+        <v>44198</v>
+      </c>
+      <c r="F47" s="20">
+        <v>365000</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0</v>
+      </c>
+      <c r="H47" s="21">
+        <f t="shared" si="10"/>
+        <v>365000</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F33B1C-F8FA-4477-A952-980AB0301B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B1CBE-4564-4F3A-B524-FD454F9C976B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChiPhi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
   <si>
     <t>TT</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Chi phí host tháng 1/2021</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 18/2/2021</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +332,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +394,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,13 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,11 +420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -446,15 +436,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,20 +448,32 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,1028 +827,1054 @@
     <col min="3" max="3" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="17" customWidth="1"/>
     <col min="9" max="9" width="38.54296875" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F3" s="26">
+      <c r="F3" s="18">
         <f>SUM(F5:F256)</f>
         <v>33994000</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="18">
         <f>SUM(G5:G256)</f>
-        <v>12919000</v>
-      </c>
-      <c r="H3" s="26">
+        <v>23909000</v>
+      </c>
+      <c r="H3" s="30">
         <f>SUM(H5:H256)</f>
-        <v>21075000</v>
+        <v>10085000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="24">
         <v>1200000</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="24">
         <v>1200000</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="25">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26">
         <v>43215</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="24">
         <v>200000</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="24">
         <v>200000</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="25">
         <f t="shared" ref="H6:H28" si="0">F6-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="20">
+      <c r="E7" s="23"/>
+      <c r="F7" s="24">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="24">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="26">
         <v>43501</v>
       </c>
-      <c r="F8" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G8" s="20">
-        <v>365000</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="F8" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G8" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H8" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26">
         <v>43502</v>
       </c>
-      <c r="F9" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G9" s="20">
-        <v>365000</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="F9" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G9" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H9" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26">
         <v>43502</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="24">
         <v>314000</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="24">
         <v>314000</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26">
         <v>43503</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="24">
         <v>375000</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="24">
         <v>375000</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="24">
         <v>2000000</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="24">
         <v>2000000</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="24">
         <v>200000</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="24">
         <v>200000</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="14" t="s">
+      <c r="I13" s="23"/>
+      <c r="J13" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="24">
         <v>1500000</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="24">
         <v>1500000</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="24">
         <v>1000000</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="24">
         <v>1000000</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
+    <row r="16" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="26">
         <v>43473</v>
       </c>
-      <c r="F16" s="32">
-        <v>365000</v>
-      </c>
-      <c r="G16" s="32">
-        <v>365000</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="F16" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G16" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H16" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31">
+    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="24">
         <v>1500000</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="24">
         <v>1500000</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31" t="s">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="31">
+      <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="D18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="26">
         <v>43474</v>
       </c>
-      <c r="F18" s="32">
-        <v>365000</v>
-      </c>
-      <c r="G18" s="32">
-        <v>365000</v>
-      </c>
-      <c r="H18" s="33">
+      <c r="F18" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G18" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H18" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
+      <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="D19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="26">
         <v>43474</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="24">
         <v>1000000</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="24">
         <v>1000000</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="25">
         <f t="shared" ref="H19" si="1">F19-G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31" t="s">
+      <c r="I19" s="23"/>
+      <c r="J19" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="31">
+      <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="34">
+      <c r="D20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26">
         <v>43475</v>
       </c>
-      <c r="F20" s="32">
-        <v>365000</v>
-      </c>
-      <c r="G20" s="32">
-        <v>365000</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="F20" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G20" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="31">
+      <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="35" t="s">
+      <c r="D21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="24">
         <v>60000</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="24">
         <v>60000</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31" t="s">
+      <c r="I21" s="23"/>
+      <c r="J21" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="31">
+      <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="34">
+      <c r="D22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="26">
         <v>43476</v>
       </c>
-      <c r="F22" s="32">
-        <v>365000</v>
-      </c>
-      <c r="G22" s="32">
-        <v>365000</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="F22" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G22" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H22" s="25">
         <f>F22-G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23" s="23">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="24">
         <v>1500000</v>
       </c>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="G23" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H23" s="25">
         <f>F23-G23</f>
-        <v>1500000</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
+      <c r="A24" s="23">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="26">
         <v>43477</v>
       </c>
-      <c r="F24" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="F24" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G24" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H24" s="25">
         <f t="shared" si="0"/>
-        <v>365000</v>
-      </c>
-      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="23">
         <v>21</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="26">
         <v>43477</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="24">
         <v>500000</v>
       </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="G25" s="24">
+        <v>500000</v>
+      </c>
+      <c r="H25" s="25">
         <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="I25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
+      <c r="A26" s="23">
         <v>22</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="26">
         <v>43831</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="24">
         <v>2000000</v>
       </c>
-      <c r="G26" s="23">
-        <v>0</v>
-      </c>
-      <c r="H26" s="24">
+      <c r="G26" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H26" s="25">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="23">
+        <v>23</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="26">
+        <v>43831</v>
+      </c>
+      <c r="F27" s="24">
         <v>2000000</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="G27" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="23">
+        <v>24</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="26">
         <v>43831</v>
       </c>
-      <c r="F27" s="22">
-        <v>2000000</v>
-      </c>
-      <c r="G27" s="20">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
+      <c r="F28" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G28" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H28" s="25">
         <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="23">
+        <v>25</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7">
-        <v>43831</v>
-      </c>
-      <c r="F28" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="0"/>
-        <v>365000</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="D29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="26">
+        <v>43832</v>
+      </c>
+      <c r="F29" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G29" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" ref="H29" si="2">F29-G29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="J29" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="23">
+        <v>26</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7">
-        <v>43832</v>
-      </c>
-      <c r="F29" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
-        <f t="shared" ref="H29" si="2">F29-G29</f>
-        <v>365000</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="D30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="26">
+        <v>43833</v>
+      </c>
+      <c r="F30" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G30" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" ref="H30:H32" si="3">F30-G30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7">
-        <v>43833</v>
-      </c>
-      <c r="F30" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G30" s="20">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21">
-        <f t="shared" ref="H30:H32" si="3">F30-G30</f>
-        <v>365000</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31" s="23">
         <v>27</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="26">
         <v>43832</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="25">
         <v>1000000</v>
       </c>
-      <c r="G31" s="21">
-        <v>0</v>
-      </c>
-      <c r="H31" s="21">
+      <c r="G31" s="25">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="25">
         <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-      <c r="I31" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
+      <c r="A32" s="23">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="26">
         <v>43834</v>
       </c>
-      <c r="F32" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G32" s="20">
-        <v>0</v>
-      </c>
-      <c r="H32" s="21">
+      <c r="F32" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G32" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H32" s="25">
         <f t="shared" si="3"/>
-        <v>365000</v>
-      </c>
-      <c r="I32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33" s="23">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="26">
         <v>43835</v>
       </c>
-      <c r="F33" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G33" s="20">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
+      <c r="F33" s="24">
+        <v>365000</v>
+      </c>
+      <c r="G33" s="24">
+        <v>365000</v>
+      </c>
+      <c r="H33" s="25">
         <f t="shared" ref="H33" si="4">F33-G33</f>
-        <v>365000</v>
-      </c>
-      <c r="I33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="11">
+      <c r="A34" s="23">
         <v>30</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="26">
         <v>43835</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="24">
         <v>1800000</v>
       </c>
-      <c r="G34" s="20">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
+      <c r="G34" s="24">
+        <v>1800000</v>
+      </c>
+      <c r="H34" s="25">
         <f t="shared" ref="H34:H35" si="5">F34-G34</f>
-        <v>1800000</v>
-      </c>
-      <c r="I34" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -1865,25 +1889,26 @@
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>43836</v>
       </c>
-      <c r="F35" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0</v>
-      </c>
-      <c r="H35" s="21">
+      <c r="F35" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
         <f t="shared" si="5"/>
         <v>365000</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
+      <c r="A36" s="8">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1895,53 +1920,55 @@
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>43837</v>
       </c>
-      <c r="F36" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G36" s="20">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21">
+      <c r="F36" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
         <f t="shared" ref="H36:H37" si="6">F36-G36</f>
         <v>365000</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>44050</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="14">
         <v>1200000</v>
       </c>
-      <c r="G37" s="20">
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
         <f t="shared" si="6"/>
         <v>1200000</v>
       </c>
       <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="11">
+      <c r="A38" s="8">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1953,22 +1980,23 @@
       <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>43838</v>
       </c>
-      <c r="F38" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G38" s="20">
-        <v>0</v>
-      </c>
-      <c r="H38" s="21">
+      <c r="F38" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
         <f t="shared" ref="H38" si="7">F38-G38</f>
         <v>365000</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -1983,25 +2011,26 @@
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>43839</v>
       </c>
-      <c r="F39" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G39" s="20">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
+      <c r="F39" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
         <f t="shared" ref="H39:H41" si="8">F39-G39</f>
         <v>365000</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
+      <c r="A40" s="8">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2013,53 +2042,55 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>43840</v>
       </c>
-      <c r="F40" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G40" s="20">
-        <v>0</v>
-      </c>
-      <c r="H40" s="21">
+      <c r="F40" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
         <f t="shared" si="8"/>
         <v>365000</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>43840</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="14">
         <v>1800000</v>
       </c>
-      <c r="G41" s="20">
-        <v>0</v>
-      </c>
-      <c r="H41" s="21">
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
         <f t="shared" si="8"/>
         <v>1800000</v>
       </c>
       <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="11">
+      <c r="A42" s="8">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2071,25 +2102,26 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>43841</v>
       </c>
-      <c r="F42" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G42" s="20">
-        <v>0</v>
-      </c>
-      <c r="H42" s="21">
+      <c r="F42" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
         <f t="shared" ref="H42" si="9">F42-G42</f>
         <v>365000</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
+      <c r="A43" s="8">
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2101,53 +2133,55 @@
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>43842</v>
       </c>
-      <c r="F43" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G43" s="20">
-        <v>0</v>
-      </c>
-      <c r="H43" s="21">
+      <c r="F43" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
         <f t="shared" ref="H43:H47" si="10">F43-G43</f>
         <v>365000</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>39</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="14">
         <v>1800000</v>
       </c>
-      <c r="G44" s="20">
-        <v>0</v>
-      </c>
-      <c r="H44" s="21">
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
         <f t="shared" si="10"/>
         <v>1800000</v>
       </c>
       <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="11">
+      <c r="A45" s="8">
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2159,46 +2193,47 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>44197</v>
       </c>
-      <c r="F45" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G45" s="20">
-        <v>0</v>
-      </c>
-      <c r="H45" s="21">
+      <c r="F45" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
         <f t="shared" ref="H45" si="11">F45-G45</f>
         <v>365000</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="16">
         <v>2000000</v>
       </c>
-      <c r="G46" s="20">
-        <v>0</v>
-      </c>
-      <c r="H46" s="21">
+      <c r="G46" s="14">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
         <f t="shared" si="10"/>
         <v>2000000</v>
       </c>
@@ -2208,7 +2243,7 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="11">
+      <c r="A47" s="8">
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2220,22 +2255,23 @@
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>44198</v>
       </c>
-      <c r="F47" s="20">
-        <v>365000</v>
-      </c>
-      <c r="G47" s="20">
-        <v>0</v>
-      </c>
-      <c r="H47" s="21">
+      <c r="F47" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
         <f t="shared" si="10"/>
         <v>365000</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="J47" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -2265,28 +2301,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="13">
         <f>SUM(C7:C9)</f>
         <v>985000</v>
       </c>
@@ -2296,10 +2332,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="13">
         <f>SUM(C10:C12)</f>
         <v>2700000</v>
       </c>
@@ -2309,10 +2345,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="13">
         <f>12*D3+D4</f>
         <v>14520000</v>
       </c>
@@ -2320,34 +2356,34 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19">
-        <v>365000</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="13">
+        <v>365000</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2362,10 +2398,10 @@
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <v>600000</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2377,13 +2413,13 @@
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="13">
         <v>20000</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="1"/>
@@ -2396,10 +2432,10 @@
       <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <v>2000000</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="1"/>
@@ -2412,10 +2448,10 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <v>200000</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1"/>
@@ -2428,13 +2464,13 @@
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>500000</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="1"/>
@@ -2449,7 +2485,7 @@
       <c r="C13" s="2">
         <v>1500000</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2459,7 +2495,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -2467,7 +2503,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
@@ -2475,7 +2511,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B1CBE-4564-4F3A-B524-FD454F9C976B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7460F6B-B849-4887-9961-43600DF03B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
   <si>
     <t>TT</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Đã thanh toán 18/2/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 2/2021</t>
   </si>
 </sst>
 </file>
@@ -460,9 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -474,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,17 +838,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -861,15 +864,15 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="18">
         <f>SUM(F5:F256)</f>
-        <v>33994000</v>
+        <v>34359000</v>
       </c>
       <c r="G3" s="18">
         <f>SUM(G5:G256)</f>
         <v>23909000</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <f>SUM(H5:H256)</f>
-        <v>10085000</v>
+        <v>10450000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -917,7 +920,7 @@
       <c r="D5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="24">
@@ -933,7 +936,7 @@
       <c r="I5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>46</v>
       </c>
     </row>
@@ -964,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="23"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -997,7 +1000,7 @@
       <c r="I7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1030,7 +1033,7 @@
       <c r="I8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1063,7 +1066,7 @@
       <c r="I9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1094,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="23"/>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1127,7 +1130,7 @@
       <c r="I11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1144,7 +1147,7 @@
       <c r="D12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="24">
@@ -1160,7 +1163,7 @@
       <c r="I12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1177,7 +1180,7 @@
       <c r="D13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="24">
@@ -1191,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="23"/>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1208,7 +1211,7 @@
       <c r="D14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="24">
@@ -1224,7 +1227,7 @@
       <c r="I14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="31" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1241,7 +1244,7 @@
       <c r="D15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="24">
@@ -1257,7 +1260,7 @@
       <c r="I15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="31" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2272,6 +2275,37 @@
         <v>35</v>
       </c>
       <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5">
+        <v>44199</v>
+      </c>
+      <c r="F48" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" ref="H48" si="12">F48-G48</f>
+        <v>365000</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -2301,13 +2335,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7460F6B-B849-4887-9961-43600DF03B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8001C116-0421-4FD6-B514-DBD3C7AFCAC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
   <si>
     <t>TT</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>Chi phí host tháng 2/2021</t>
+  </si>
+  <si>
+    <t>Chi phí lương kế toán 03 tháng 1-2-3/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 3/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 4/2021</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 22/5/2021</t>
   </si>
 </sst>
 </file>
@@ -343,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +495,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,15 +891,15 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="18">
         <f>SUM(F5:F256)</f>
-        <v>34359000</v>
+        <v>36889000</v>
       </c>
       <c r="G3" s="18">
         <f>SUM(G5:G256)</f>
-        <v>23909000</v>
+        <v>28734000</v>
       </c>
       <c r="H3" s="29">
         <f>SUM(H5:H256)</f>
-        <v>10450000</v>
+        <v>8155000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1880,217 +1907,231 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35" s="34">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="C35" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="35">
         <v>43836</v>
       </c>
-      <c r="F35" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
+      <c r="F35" s="36">
+        <v>365000</v>
+      </c>
+      <c r="G35" s="36">
+        <v>365000</v>
+      </c>
+      <c r="H35" s="37">
         <f t="shared" si="5"/>
-        <v>365000</v>
-      </c>
-      <c r="I35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+      <c r="A36" s="34">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="C36" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="35">
         <v>43837</v>
       </c>
-      <c r="F36" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G36" s="14">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+      <c r="F36" s="36">
+        <v>365000</v>
+      </c>
+      <c r="G36" s="36">
+        <v>365000</v>
+      </c>
+      <c r="H36" s="37">
         <f t="shared" ref="H36:H37" si="6">F36-G36</f>
-        <v>365000</v>
-      </c>
-      <c r="I36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37" s="34">
         <v>33</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="35">
         <v>44050</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="36">
         <v>1200000</v>
       </c>
-      <c r="G37" s="14">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+      <c r="G37" s="36">
+        <v>1200000</v>
+      </c>
+      <c r="H37" s="37">
         <f t="shared" si="6"/>
-        <v>1200000</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="A38" s="34">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="C38" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="35">
         <v>43838</v>
       </c>
-      <c r="F38" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G38" s="14">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
+      <c r="F38" s="36">
+        <v>365000</v>
+      </c>
+      <c r="G38" s="36">
+        <v>365000</v>
+      </c>
+      <c r="H38" s="37">
         <f t="shared" ref="H38" si="7">F38-G38</f>
-        <v>365000</v>
-      </c>
-      <c r="I38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39" s="34">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="C39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="35">
         <v>43839</v>
       </c>
-      <c r="F39" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G39" s="14">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
+      <c r="F39" s="36">
+        <v>365000</v>
+      </c>
+      <c r="G39" s="36">
+        <v>365000</v>
+      </c>
+      <c r="H39" s="37">
         <f t="shared" ref="H39:H41" si="8">F39-G39</f>
-        <v>365000</v>
-      </c>
-      <c r="I39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+      <c r="A40" s="34">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="C40" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="35">
         <v>43840</v>
       </c>
-      <c r="F40" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G40" s="14">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
+      <c r="F40" s="36">
+        <v>365000</v>
+      </c>
+      <c r="G40" s="36">
+        <v>365000</v>
+      </c>
+      <c r="H40" s="37">
         <f t="shared" si="8"/>
-        <v>365000</v>
-      </c>
-      <c r="I40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="J40" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41" s="34">
         <v>37</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="35">
         <v>43840</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="36">
         <v>1800000</v>
       </c>
-      <c r="G41" s="14">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="G41" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="H41" s="37">
         <f t="shared" si="8"/>
-        <v>1800000</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
@@ -2124,8 +2165,8 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
-        <v>38</v>
+      <c r="A43" s="1">
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>87</v>
@@ -2155,8 +2196,8 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>39</v>
+      <c r="A44" s="8">
+        <v>40</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>88</v>
@@ -2184,8 +2225,8 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="8">
-        <v>38</v>
+      <c r="A45" s="1">
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>91</v>
@@ -2215,8 +2256,8 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>40</v>
+      <c r="A46" s="8">
+        <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>90</v>
@@ -2246,8 +2287,8 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
-        <v>38</v>
+      <c r="A47" s="1">
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>93</v>
@@ -2278,7 +2319,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>95</v>
@@ -2299,13 +2340,104 @@
         <v>0</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" ref="H48" si="12">F48-G48</f>
+        <f t="shared" ref="H48:H49" si="12">F48-G48</f>
         <v>365000</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1800000</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="12"/>
+        <v>1800000</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5">
+        <v>44200</v>
+      </c>
+      <c r="F50" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" ref="H50" si="13">F50-G50</f>
+        <v>365000</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5">
+        <v>44201</v>
+      </c>
+      <c r="F51" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
+        <f t="shared" ref="H51" si="14">F51-G51</f>
+        <v>365000</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8001C116-0421-4FD6-B514-DBD3C7AFCAC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F4DAD-BC51-43CC-AD12-800806D557D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
   <si>
     <t>TT</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>Đã thanh toán 22/5/2021</t>
+  </si>
+  <si>
+    <t>Gia hạn tên miền tới 4/6/2023</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 5/2021</t>
   </si>
 </sst>
 </file>
@@ -493,9 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +507,9 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G41"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,17 +871,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -890,16 +896,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F3" s="18">
-        <f>SUM(F5:F256)</f>
-        <v>36889000</v>
+        <f>SUM(F5:F257)</f>
+        <v>38054000</v>
       </c>
       <c r="G3" s="18">
-        <f>SUM(G5:G256)</f>
+        <f>SUM(G5:G257)</f>
         <v>28734000</v>
       </c>
       <c r="H3" s="29">
-        <f>SUM(H5:H256)</f>
-        <v>8155000</v>
+        <f>SUM(H5:H257)</f>
+        <v>9320000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1907,229 +1913,229 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>31</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="35">
+      <c r="C35" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="34">
         <v>43836</v>
       </c>
-      <c r="F35" s="36">
-        <v>365000</v>
-      </c>
-      <c r="G35" s="36">
-        <v>365000</v>
-      </c>
-      <c r="H35" s="37">
+      <c r="F35" s="35">
+        <v>365000</v>
+      </c>
+      <c r="G35" s="35">
+        <v>365000</v>
+      </c>
+      <c r="H35" s="36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>32</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="35">
+      <c r="C36" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="34">
         <v>43837</v>
       </c>
-      <c r="F36" s="36">
-        <v>365000</v>
-      </c>
-      <c r="G36" s="36">
-        <v>365000</v>
-      </c>
-      <c r="H36" s="37">
+      <c r="F36" s="35">
+        <v>365000</v>
+      </c>
+      <c r="G36" s="35">
+        <v>365000</v>
+      </c>
+      <c r="H36" s="36">
         <f t="shared" ref="H36:H37" si="6">F36-G36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="34">
+      <c r="A37" s="33">
         <v>33</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="35">
+      <c r="D37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="34">
         <v>44050</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="35">
         <v>1200000</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>1200000</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34" t="s">
+      <c r="I37" s="33"/>
+      <c r="J37" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>34</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="35">
+      <c r="C38" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="34">
         <v>43838</v>
       </c>
-      <c r="F38" s="36">
-        <v>365000</v>
-      </c>
-      <c r="G38" s="36">
-        <v>365000</v>
-      </c>
-      <c r="H38" s="37">
+      <c r="F38" s="35">
+        <v>365000</v>
+      </c>
+      <c r="G38" s="35">
+        <v>365000</v>
+      </c>
+      <c r="H38" s="36">
         <f t="shared" ref="H38" si="7">F38-G38</f>
         <v>0</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="34">
+      <c r="A39" s="33">
         <v>35</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="35">
+      <c r="C39" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="34">
         <v>43839</v>
       </c>
-      <c r="F39" s="36">
-        <v>365000</v>
-      </c>
-      <c r="G39" s="36">
-        <v>365000</v>
-      </c>
-      <c r="H39" s="37">
+      <c r="F39" s="35">
+        <v>365000</v>
+      </c>
+      <c r="G39" s="35">
+        <v>365000</v>
+      </c>
+      <c r="H39" s="36">
         <f t="shared" ref="H39:H41" si="8">F39-G39</f>
         <v>0</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>36</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="35">
+      <c r="C40" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="34">
         <v>43840</v>
       </c>
-      <c r="F40" s="36">
-        <v>365000</v>
-      </c>
-      <c r="G40" s="36">
-        <v>365000</v>
-      </c>
-      <c r="H40" s="37">
+      <c r="F40" s="35">
+        <v>365000</v>
+      </c>
+      <c r="G40" s="35">
+        <v>365000</v>
+      </c>
+      <c r="H40" s="36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="34">
+      <c r="A41" s="33">
         <v>37</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="35">
+      <c r="D41" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="34">
         <v>43840</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="35">
         <v>1800000</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="35">
         <v>1800000</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="36">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34" t="s">
+      <c r="I41" s="33"/>
+      <c r="J41" s="33" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2431,13 +2437,73 @@
         <v>0</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" ref="H51" si="14">F51-G51</f>
+        <f t="shared" ref="H51:H53" si="14">F51-G51</f>
         <v>365000</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5">
+        <v>44202</v>
+      </c>
+      <c r="F52" s="14">
+        <v>365000</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f t="shared" ref="H52" si="15">F52-G52</f>
+        <v>365000</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
+        <v>49</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5">
+        <v>44292</v>
+      </c>
+      <c r="F53" s="14">
+        <v>800000</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <f t="shared" si="14"/>
+        <v>800000</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -2467,13 +2533,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>

--- a/0.PM/ChiPhi.xlsx
+++ b/0.PM/ChiPhi.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F4DAD-BC51-43CC-AD12-800806D557D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60B29D5-B909-4E97-961D-CEC20C43687D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="108">
   <si>
     <t>TT</t>
   </si>
@@ -327,6 +327,24 @@
   </si>
   <si>
     <t>Chi phí host tháng 5/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 6/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 7/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 8/2021</t>
+  </si>
+  <si>
+    <t>Chi phí host tháng 9/2021</t>
+  </si>
+  <si>
+    <t>5 USD/tháng + 11K phí ngân hàng</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 22/9/2021</t>
   </si>
 </sst>
 </file>
@@ -361,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,12 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,9 +448,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,18 +469,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -498,15 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,25 +857,25 @@
     <col min="3" max="3" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="38.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -890,22 +884,22 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f>SUM(F5:F257)</f>
-        <v>38054000</v>
-      </c>
-      <c r="G3" s="18">
+        <v>39014000</v>
+      </c>
+      <c r="G3" s="16">
         <f>SUM(G5:G257)</f>
-        <v>28734000</v>
-      </c>
-      <c r="H3" s="29">
+        <v>36159000</v>
+      </c>
+      <c r="H3" s="26">
         <f>SUM(H5:H257)</f>
-        <v>9320000</v>
+        <v>2855000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -941,1450 +935,1466 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>1200000</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>1200000</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
         <v>43215</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>200000</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>200000</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <f t="shared" ref="H6:H28" si="0">F6-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="31" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24">
+      <c r="E7" s="20"/>
+      <c r="F7" s="21">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <f>5*12*23000</f>
         <v>1380000</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="C8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23">
         <v>43501</v>
       </c>
-      <c r="F8" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G8" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="F8" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G8" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="31" t="s">
+      <c r="I8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="C9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="23">
         <v>43502</v>
       </c>
-      <c r="F9" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G9" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H9" s="25">
+      <c r="F9" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G9" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="I9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="23">
         <v>43502</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <v>314000</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <v>314000</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="C11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23">
         <v>43503</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <v>375000</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="21">
         <v>375000</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="31" t="s">
+      <c r="I11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>8</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="20">
+        <v>8</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>2000000</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>2000000</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <v>200000</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
         <v>200000</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
+    <row r="14" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>1500000</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>1500000</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
+    <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <v>1000000</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="21">
         <v>1000000</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+    <row r="16" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="C16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="23">
         <v>43473</v>
       </c>
-      <c r="F16" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G16" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="F16" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G16" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+    <row r="17" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <v>1500000</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="21">
         <v>1500000</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="C18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="23">
         <v>43474</v>
       </c>
-      <c r="F18" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G18" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H18" s="25">
+      <c r="F18" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G18" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="23" t="s">
+      <c r="I18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="23">
         <v>43474</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <v>1000000</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="21">
         <v>1000000</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="22">
         <f t="shared" ref="H19" si="1">F19-G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23" t="s">
+      <c r="I19" s="20"/>
+      <c r="J19" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
+      <c r="A20" s="20">
         <v>16</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="C20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="23">
         <v>43475</v>
       </c>
-      <c r="F20" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G20" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H20" s="25">
+      <c r="F20" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G20" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="23" t="s">
+      <c r="I20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="23">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <v>60000</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="21">
         <v>60000</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
+      <c r="A22" s="20">
         <v>18</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="C22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="23">
         <v>43476</v>
       </c>
-      <c r="F22" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G22" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H22" s="25">
+      <c r="F22" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G22" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H22" s="22">
         <f>F22-G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="23" t="s">
+      <c r="I22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <v>1500000</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="21">
         <v>1500000</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="22">
         <f>F23-G23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
+      <c r="A24" s="20">
         <v>20</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="C24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="23">
         <v>43477</v>
       </c>
-      <c r="F24" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G24" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H24" s="25">
+      <c r="F24" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G24" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="23" t="s">
+      <c r="I24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="23">
+      <c r="A25" s="20">
         <v>21</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="D25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="23">
         <v>43477</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="21">
         <v>500000</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="21">
         <v>500000</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
+      <c r="A26" s="20">
         <v>22</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="D26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="23">
         <v>43831</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="21">
         <v>2000000</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="21">
         <v>2000000</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="23">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="23">
         <v>43831</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="21">
         <v>2000000</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="21">
         <v>2000000</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="23">
+      <c r="A28" s="20">
         <v>24</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="26">
+      <c r="C28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="23">
         <v>43831</v>
       </c>
-      <c r="F28" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G28" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H28" s="25">
+      <c r="F28" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G28" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="23" t="s">
+      <c r="I28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="23">
+      <c r="A29" s="20">
         <v>25</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="C29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="23">
         <v>43832</v>
       </c>
-      <c r="F29" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G29" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H29" s="25">
+      <c r="F29" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G29" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H29" s="22">
         <f t="shared" ref="H29" si="2">F29-G29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="23" t="s">
+      <c r="I29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="23">
+      <c r="A30" s="20">
         <v>26</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="C30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="23">
         <v>43833</v>
       </c>
-      <c r="F30" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G30" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H30" s="25">
+      <c r="F30" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G30" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H30" s="22">
         <f t="shared" ref="H30:H32" si="3">F30-G30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="23" t="s">
+      <c r="I30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="23">
+      <c r="A31" s="20">
         <v>27</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="D31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="23">
         <v>43832</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="22">
         <v>1000000</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="22">
         <v>1000000</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23" t="s">
+      <c r="I31" s="20"/>
+      <c r="J31" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="23">
+      <c r="A32" s="20">
         <v>28</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="26">
+      <c r="C32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="23">
         <v>43834</v>
       </c>
-      <c r="F32" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G32" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H32" s="25">
+      <c r="F32" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G32" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H32" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I32" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="23" t="s">
+      <c r="I32" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="23">
+      <c r="A33" s="20">
         <v>29</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="C33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="23">
         <v>43835</v>
       </c>
-      <c r="F33" s="24">
-        <v>365000</v>
-      </c>
-      <c r="G33" s="24">
-        <v>365000</v>
-      </c>
-      <c r="H33" s="25">
+      <c r="F33" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G33" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H33" s="22">
         <f t="shared" ref="H33" si="4">F33-G33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="23" t="s">
+      <c r="I33" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="23">
-        <v>30</v>
-      </c>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="20">
+        <v>30</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="D34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="23">
         <v>43835</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="21">
         <v>1800000</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="21">
         <v>1800000</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="22">
         <f t="shared" ref="H34:H35" si="5">F34-G34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
+      <c r="I34" s="20"/>
+      <c r="J34" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="33">
+      <c r="A35" s="20">
         <v>31</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="34">
+      <c r="C35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="23">
         <v>43836</v>
       </c>
-      <c r="F35" s="35">
-        <v>365000</v>
-      </c>
-      <c r="G35" s="35">
-        <v>365000</v>
-      </c>
-      <c r="H35" s="36">
+      <c r="F35" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G35" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H35" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I35" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="33" t="s">
+      <c r="I35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
+      <c r="A36" s="20">
         <v>32</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="34">
+      <c r="C36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="23">
         <v>43837</v>
       </c>
-      <c r="F36" s="35">
-        <v>365000</v>
-      </c>
-      <c r="G36" s="35">
-        <v>365000</v>
-      </c>
-      <c r="H36" s="36">
+      <c r="F36" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G36" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H36" s="22">
         <f t="shared" ref="H36:H37" si="6">F36-G36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="33" t="s">
+      <c r="I36" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="33">
+      <c r="A37" s="20">
         <v>33</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="34">
+      <c r="D37" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="23">
         <v>44050</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="21">
         <v>1200000</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="21">
         <v>1200000</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33" t="s">
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
+      <c r="A38" s="20">
         <v>34</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="34">
+      <c r="C38" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="23">
         <v>43838</v>
       </c>
-      <c r="F38" s="35">
-        <v>365000</v>
-      </c>
-      <c r="G38" s="35">
-        <v>365000</v>
-      </c>
-      <c r="H38" s="36">
+      <c r="F38" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G38" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H38" s="22">
         <f t="shared" ref="H38" si="7">F38-G38</f>
         <v>0</v>
       </c>
-      <c r="I38" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" s="33" t="s">
+      <c r="I38" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="33">
-        <v>35</v>
-      </c>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="20">
+        <v>35</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="34">
+      <c r="C39" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="23">
         <v>43839</v>
       </c>
-      <c r="F39" s="35">
-        <v>365000</v>
-      </c>
-      <c r="G39" s="35">
-        <v>365000</v>
-      </c>
-      <c r="H39" s="36">
+      <c r="F39" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G39" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H39" s="22">
         <f t="shared" ref="H39:H41" si="8">F39-G39</f>
         <v>0</v>
       </c>
-      <c r="I39" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39" s="33" t="s">
+      <c r="I39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="33">
+      <c r="A40" s="20">
         <v>36</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="34">
+      <c r="C40" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="23">
         <v>43840</v>
       </c>
-      <c r="F40" s="35">
-        <v>365000</v>
-      </c>
-      <c r="G40" s="35">
-        <v>365000</v>
-      </c>
-      <c r="H40" s="36">
+      <c r="F40" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G40" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H40" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I40" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="33" t="s">
+      <c r="I40" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="33">
+      <c r="A41" s="20">
         <v>37</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="34">
+      <c r="D41" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="23">
         <v>43840</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="21">
         <v>1800000</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="21">
         <v>1800000</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33" t="s">
+      <c r="I41" s="20"/>
+      <c r="J41" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+      <c r="A42" s="20">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="C42" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="23">
         <v>43841</v>
       </c>
-      <c r="F42" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G42" s="14">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15">
-        <f t="shared" ref="H42" si="9">F42-G42</f>
-        <v>365000</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="1"/>
+      <c r="F42" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G42" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H42" s="22">
+        <f t="shared" ref="G42:H42" si="9">F42-G42</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43" s="20">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="C43" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="23">
         <v>43842</v>
       </c>
-      <c r="F43" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G43" s="14">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15">
-        <f t="shared" ref="H43:H47" si="10">F43-G43</f>
-        <v>365000</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43" s="1"/>
+      <c r="F43" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G43" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" ref="G43:H47" si="10">F43-G43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="A44" s="20">
         <v>40</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="21">
         <v>1800000</v>
       </c>
-      <c r="G44" s="14">
-        <v>0</v>
-      </c>
-      <c r="H44" s="15">
+      <c r="G44" s="21">
+        <v>1800000</v>
+      </c>
+      <c r="H44" s="22">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="20">
+        <v>41</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="23">
+        <v>44197</v>
+      </c>
+      <c r="F45" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G45" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H45" s="22">
+        <f t="shared" ref="G45:H45" si="11">F45-G45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="20">
+        <v>42</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="G46" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="H46" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="20">
+        <v>43</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="23">
+        <v>44198</v>
+      </c>
+      <c r="F47" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G47" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H47" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="20">
+        <v>44</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="23">
+        <v>44199</v>
+      </c>
+      <c r="F48" s="21">
+        <v>365000</v>
+      </c>
+      <c r="G48" s="21">
+        <v>365000</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" ref="G48:H49" si="12">F48-G48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="20">
+        <v>45</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="21">
         <v>1800000</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="5">
-        <v>44197</v>
-      </c>
-      <c r="F45" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G45" s="14">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15">
-        <f t="shared" ref="H45" si="11">F45-G45</f>
-        <v>365000</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
-        <v>42</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="16">
-        <v>2000000</v>
-      </c>
-      <c r="G46" s="14">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15">
-        <f t="shared" si="10"/>
-        <v>2000000</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5">
-        <v>44198</v>
-      </c>
-      <c r="F47" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G47" s="14">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <f t="shared" si="10"/>
-        <v>365000</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
-        <v>44</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="5">
-        <v>44199</v>
-      </c>
-      <c r="F48" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G48" s="14">
-        <v>0</v>
-      </c>
-      <c r="H48" s="15">
-        <f t="shared" ref="H48:H49" si="12">F48-G48</f>
-        <v>365000</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>45</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="14">
+      <c r="G49" s="21">
         <v>1800000</v>
       </c>
-      <c r="G49" s="14">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
+      <c r="H49" s="22">
         <f t="shared" si="12"/>
-        <v>1800000</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2399,13 +2409,13 @@
       <c r="E50" s="5">
         <v>44200</v>
       </c>
-      <c r="F50" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G50" s="14">
-        <v>0</v>
-      </c>
-      <c r="H50" s="15">
+      <c r="F50" s="13">
+        <v>365000</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
         <f t="shared" ref="H50" si="13">F50-G50</f>
         <v>365000</v>
       </c>
@@ -2430,14 +2440,14 @@
       <c r="E51" s="5">
         <v>44201</v>
       </c>
-      <c r="F51" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G51" s="14">
-        <v>0</v>
-      </c>
-      <c r="H51" s="15">
-        <f t="shared" ref="H51:H53" si="14">F51-G51</f>
+      <c r="F51" s="13">
+        <v>365000</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" ref="H51:H55" si="14">F51-G51</f>
         <v>365000</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -2446,7 +2456,7 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52" s="7">
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2461,13 +2471,13 @@
       <c r="E52" s="5">
         <v>44202</v>
       </c>
-      <c r="F52" s="14">
-        <v>365000</v>
-      </c>
-      <c r="G52" s="14">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15">
+      <c r="F52" s="13">
+        <v>365000</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
         <f t="shared" ref="H52" si="15">F52-G52</f>
         <v>365000</v>
       </c>
@@ -2477,10 +2487,10 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
+      <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2492,18 +2502,142 @@
       <c r="E53" s="5">
         <v>44292</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="13">
         <v>800000</v>
       </c>
-      <c r="G53" s="14">
-        <v>0</v>
-      </c>
-      <c r="H53" s="15">
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
         <f t="shared" si="14"/>
         <v>800000</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5">
+        <v>44203</v>
+      </c>
+      <c r="F54" s="13">
+        <v>365000</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <f t="shared" si="14"/>
+        <v>365000</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5">
+        <v>44204</v>
+      </c>
+      <c r="F55" s="13">
+        <v>365000</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <f t="shared" si="14"/>
+        <v>365000</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5">
+        <v>44205</v>
+      </c>
+      <c r="F56" s="13">
+        <v>115000</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <f t="shared" ref="H56" si="16">F56-G56</f>
+        <v>115000</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5">
+        <v>44206</v>
+      </c>
+      <c r="F57" s="13">
+        <v>115000</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <f t="shared" ref="H57" si="17">F57-G57</f>
+        <v>115000</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I37" xr:uid="{3C114EBF-F9B7-4C6E-B13B-77DBBA155778}"/>
@@ -2533,28 +2667,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>SUM(C7:C9)</f>
         <v>985000</v>
       </c>
@@ -2564,10 +2698,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>SUM(C10:C12)</f>
         <v>2700000</v>
       </c>
@@ -2577,10 +2711,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>12*D3+D4</f>
         <v>14520000</v>
       </c>
@@ -2609,13 +2743,13 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="13">
-        <v>365000</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12">
+        <v>365000</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2630,10 +2764,10 @@
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>600000</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2645,13 +2779,13 @@
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>20000</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="1"/>
@@ -2664,10 +2798,10 @@
       <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>2000000</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="1"/>
@@ -2680,10 +2814,10 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>200000</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1"/>
@@ -2696,13 +2830,13 @@
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>500000</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="1"/>
@@ -2717,7 +2851,7 @@
       <c r="C13" s="2">
         <v>1500000</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2727,7 +2861,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -2735,7 +2869,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
@@ -2743,7 +2877,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
